--- a/biology/Zoologie/Dryopsophus_lesueurii/Dryopsophus_lesueurii.xlsx
+++ b/biology/Zoologie/Dryopsophus_lesueurii/Dryopsophus_lesueurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus lesueurii est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus lesueurii est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre  en Nouvelle-Galles du Sud au sud de Sydney, dans le Territoire de la capitale australienne et dans l'Est de l'État de Victoria ce qui représente 767 400 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre  en Nouvelle-Galles du Sud au sud de Sydney, dans le Territoire de la capitale australienne et dans l'Est de l'État de Victoria ce qui représente 767 400 km2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grenouille arboricole d'assez grande taille. Les mâles mesurent de 27 à 40 mm et les femelles de 49 à 53 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grenouille arboricole d'assez grande taille. Les mâles mesurent de 27 à 40 mm et les femelles de 49 à 53 mm.
 Le dos est d'un brun pâle à foncé et devient jaune brillant chez le mâle à la saison des amours. Le ventre est blanc. Elle a souvent des taches plus foncées sur le dos. Une bande foncée court des narines jusqu'aux épaules. L'arrière des pattes est bleu avec des taches noires, ce qui permet de la distinguer de l'espèce très voisine Litoria wilcoxii. La moitié supérieure de l'iris est pâle et la moitié inférieure foncée. Les coussinets plantaires sont petits.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur (1778–1846)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur (1778–1846).
 </t>
         </is>
       </c>
